--- a/Alura/formacaoDataScience/ExcelAndVBA/ExcelProcvLogicaBooleanaEBuscaPorValores/excel-procv-material-inicial/aula1.xlsx
+++ b/Alura/formacaoDataScience/ExcelAndVBA/ExcelProcvLogicaBooleanaEBuscaPorValores/excel-procv-material-inicial/aula1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://officeresolve-my.sharepoint.com/personal/r_sabino_officeresolve_com_br/Documents/Alura/Excel (Curso 3)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucasSilvaDantasAbra\www\studySpace\Alura\formacaoDataScience\ExcelAndVBA\ExcelProcvLogicaBooleanaEBuscaPorValores\excel-procv-material-inicial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFDFF254-6301-4CF1-AE95-FFBAB4F296A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693C34A3-1AD1-408C-9344-083B245C518A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1725" windowWidth="20640" windowHeight="11760" firstSheet="1" activeTab="2" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
+    <workbookView xWindow="31365" yWindow="150" windowWidth="19425" windowHeight="10635" firstSheet="1" activeTab="3" xr2:uid="{C1B61AA5-C757-4C13-B5B2-E36863709022}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos Infantis" sheetId="1" state="hidden" r:id="rId1"/>
@@ -668,7 +668,7 @@
   </cellStyleXfs>
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1151,7 +1151,7 @@
             <c:numRef>
               <c:f>'Produtos Infantis'!$F$3:$F$62</c:f>
               <c:numCache>
-                <c:formatCode>_-"R$"* #,##0.00_-;\-"R$"* #,##0.00_-;_-"R$"* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_-"$"* #.##000_-;\-"$"* #.##000_-;_-"$"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>1077.3</c:v>
@@ -1427,7 +1427,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_-&quot;$&quot;* #.##000_-;\-&quot;$&quot;* #.##000_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7743,16 +7743,16 @@
       <selection pane="bottomLeft" activeCell="E22" sqref="E3:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.36328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="6" width="18.36328125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
@@ -7762,7 +7762,7 @@
       <c r="E1" s="56"/>
       <c r="F1" s="57"/>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>215.45999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>1508.2199999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>861.83999999999992</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>359.09999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>574.55999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>1651.86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>1795.4999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>143.63999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>599.76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>524.79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>1199.52</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>1499.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>13</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>449.82</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>13</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>599.76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>13</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>1049.58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>14</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>1220.9399999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>14</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>14</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>143.63999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>14</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>71.819999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>14</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>14</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>14</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>430.91999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>14</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>574.55999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>14</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>646.37999999999988</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>14</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>14</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>1292.7599999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>14</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>1349.46</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>14</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>149.94</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>14</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>224.91</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>14</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>449.82</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>14</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>14</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>374.85</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>14</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>1424.43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>14</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>1949.22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>14</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>374.85</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
         <v>12</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>1795.4999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
         <v>12</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>143.63999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
         <v>12</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>215.45999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
         <v>12</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>71.819999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
         <v>12</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
         <v>12</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>359.09999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
         <v>12</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>1149.1199999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="21" t="s">
         <v>12</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
         <v>12</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>1149.1199999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
         <v>12</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>1005.4799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
         <v>12</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>1077.3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="24" t="s">
         <v>12</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>2174.13</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="24" t="s">
         <v>12</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>374.85</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="24" t="s">
         <v>12</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="24" t="s">
         <v>12</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>299.88</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="24" t="s">
         <v>12</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>374.85</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="24" t="s">
         <v>12</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>1124.55</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="24" t="s">
         <v>12</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>1199.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>12</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>149.94</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="24" t="s">
         <v>12</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>2698.92</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>10</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>153.9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>10</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>10</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>10</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>1385.1000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>10</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>1462.05</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>10</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>10</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>10</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>1923.75</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>10</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>461.70000000000005</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>10</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>10</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>2308.5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>10</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>404.55000000000007</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>10</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>10</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>485.46000000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>10</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>1213.6500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>10</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>10</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>323.64000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>10</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>1213.6500000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>10</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>161.82000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>10</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
         <v>11</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>461.70000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>11</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>1154.25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
         <v>11</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>1923.75</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="s">
         <v>11</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
         <v>11</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>1462.05</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
         <v>11</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
         <v>11</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
         <v>11</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
         <v>11</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>1462.05</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="s">
         <v>11</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>1923.75</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
         <v>11</v>
       </c>
@@ -9784,7 +9784,7 @@
         <v>2000.7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
         <v>11</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>1699.1100000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
         <v>11</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>80.910000000000011</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
         <v>11</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
         <v>11</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>1860.9300000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
         <v>11</v>
       </c>
@@ -9894,7 +9894,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>11</v>
       </c>
@@ -9905,18 +9905,18 @@
         <v>89.9</v>
       </c>
       <c r="D99" s="17">
-        <f t="shared" ref="D99:D130" si="6">C99*$C$124</f>
+        <f t="shared" ref="D99:D122" si="6">C99*$C$124</f>
         <v>8.99</v>
       </c>
       <c r="E99" s="19">
         <v>4</v>
       </c>
       <c r="F99" s="17">
-        <f t="shared" ref="F99:F130" si="7">(C99-D99)*E99</f>
+        <f t="shared" ref="F99:F122" si="7">(C99-D99)*E99</f>
         <v>323.64000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="18" t="s">
         <v>11</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>2022.7500000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="18" t="s">
         <v>11</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>1294.5600000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="18" t="s">
         <v>11</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="21" t="s">
         <v>9</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="21" t="s">
         <v>9</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>230.85000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="21" t="s">
         <v>9</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="21" t="s">
         <v>9</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>1231.2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="21" t="s">
         <v>9</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>384.75</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="21" t="s">
         <v>9</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="21" t="s">
         <v>9</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>153.9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="21" t="s">
         <v>9</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>1923.75</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="21" t="s">
         <v>9</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>153.9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="21" t="s">
         <v>9</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>2000.7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="21" t="s">
         <v>9</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>1769.8500000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="24" t="s">
         <v>9</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>404.55000000000007</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="24" t="s">
         <v>9</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="24" t="s">
         <v>9</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>2022.7500000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="24" t="s">
         <v>9</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="24" t="s">
         <v>9</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="24" t="s">
         <v>9</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>485.46000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="24" t="s">
         <v>9</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>323.64000000000004</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="24" t="s">
         <v>9</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>1699.1100000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="24" t="s">
         <v>9</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>242.73000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A123" s="4"/>
       <c r="B123" s="5" t="s">
         <v>2</v>
@@ -10441,7 +10441,7 @@
         <v>96668.00999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A124" s="4"/>
       <c r="B124" s="5" t="s">
         <v>7</v>
@@ -10474,14 +10474,14 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="63" t="s">
@@ -10507,7 +10507,7 @@
       <c r="U1" s="64"/>
       <c r="V1" s="65"/>
     </row>
-    <row r="2" spans="1:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="C2" s="45">
@@ -10571,7 +10571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="66" t="s">
         <v>13</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="67"/>
       <c r="B4" s="50" t="s">
         <v>30</v>
@@ -10705,7 +10705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="61" t="s">
         <v>14</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="62"/>
       <c r="B6" s="50" t="s">
         <v>30</v>
@@ -10839,7 +10839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="61" t="s">
         <v>12</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>83.3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="62"/>
       <c r="B8" s="50" t="s">
         <v>30</v>
@@ -10973,7 +10973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="61" t="s">
         <v>10</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="62"/>
       <c r="B10" s="50" t="s">
         <v>30</v>
@@ -11107,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="61" t="s">
         <v>11</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="62"/>
       <c r="B12" s="50" t="s">
         <v>30</v>
@@ -11241,7 +11241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="61" t="s">
         <v>9</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="62"/>
       <c r="B14" s="50" t="s">
         <v>30</v>
@@ -11393,17 +11393,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265C4FC4-DE5B-4DB6-99AD-796FEF13CBFD}">
   <dimension ref="A3:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>25</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>26</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>27</v>
       </c>
@@ -11437,18 +11437,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2B2633-A280-45BF-A0F7-53144438DFDE}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="68" t="s">
         <v>16</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>17</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>18</v>
       </c>
@@ -11481,14 +11481,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="28"/>
       <c r="B4" s="31"/>
       <c r="E4" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
@@ -11512,14 +11512,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="28"/>
       <c r="B7" s="31"/>
       <c r="E7" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>20</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>8.7480000000000011</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
         <v>21</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>87.480000000000047</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
         <v>22</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>9.9999999999999964E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>23</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>89.9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29" t="s">
         <v>24</v>
       </c>
@@ -11585,17 +11585,17 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -11611,8 +11611,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -11646,7 +11646,7 @@
         <v>615.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>647.28000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -11697,7 +11697,7 @@
         <v>574.55999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>599.76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
@@ -11747,7 +11747,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11757,6 +11757,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DADAA82B37D6A34396C9A79382D322B2" ma:contentTypeVersion="7" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1793825d7b05ea3989becfa6f4c745dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="44473e96-bad3-4ccd-b3db-2438e2abade5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="056e6b85bc79c915fb5c20b44a88eb3f" ns3:_="">
     <xsd:import namespace="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
@@ -11920,22 +11935,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83C5F652-AFD1-4E5C-9E82-411857256D83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7555D2-3476-4E22-B89A-E5D91FD6531C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C2436EB-D1E1-4C0D-8AEC-B7617369AD05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11951,28 +11975,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D7555D2-3476-4E22-B89A-E5D91FD6531C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83C5F652-AFD1-4E5C-9E82-411857256D83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>